--- a/un-smp-bandung-2015.xlsx
+++ b/un-smp-bandung-2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,8 +27,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Sumber: </t>
+          <t>Sumber: </t>
         </r>
         <r>
           <rPr>
@@ -36,8 +37,9 @@
             <color rgb="FF0000FF"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">http://disdikkota.bandung.go.id/webtemp/index.php/informasi/111-statisik-capaian-nun-smp-kota-bandung-2015
+          <t>http://disdikkota.bandung.go.id/webtemp/index.php/informasi/111-statisik-capaian-nun-smp-kota-bandung-2015
 </t>
         </r>
       </text>
@@ -70,6 +72,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,17 +94,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -253,7 +259,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A476" activeCellId="0" sqref="A476"/>
-      <selection pane="bottomRight" activeCell="A489" activeCellId="0" sqref="A489"/>
+      <selection pane="bottomRight" activeCell="B490" activeCellId="0" sqref="B490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
